--- a/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
+++ b/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noorg\OneDrive\Documents\GitHub\Andromeda-V3.3\PowerManagementBoard_V3.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DEF60E-C763-4FA2-B079-E0E229E93BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6DD41-A629-4601-8FB7-2A1092C20DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BF07532D-72B4-43B2-830F-911E19F02528}"/>
   </bookViews>
@@ -316,10 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -653,15 +653,16 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="6" width="18.81640625" customWidth="1"/>
+    <col min="4" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -683,7 +684,7 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -706,7 +707,7 @@
       <c r="F2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -729,7 +730,7 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -752,7 +753,7 @@
       <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -775,7 +776,7 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -798,7 +799,7 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -821,7 +822,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -844,7 +845,7 @@
       <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -867,7 +868,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -890,7 +891,7 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -913,7 +914,7 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -936,7 +937,7 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -959,7 +960,7 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -982,7 +983,7 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1005,7 +1006,7 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1028,7 +1029,7 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1051,7 +1052,7 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1074,7 +1075,7 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1097,7 +1098,7 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1120,7 +1121,7 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1143,7 +1144,7 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>70</v>
       </c>
     </row>

--- a/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
+++ b/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noorg\OneDrive\Documents\GitHub\Andromeda-V3.3\PowerManagementBoard_V3.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Documents\GitHub\Andromeda-V3.3\PowerManagementBoard_V3.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B6DD41-A629-4601-8FB7-2A1092C20DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25DA20-AB97-48F9-A6B4-3DFC0FCF1C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BF07532D-72B4-43B2-830F-911E19F02528}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF07532D-72B4-43B2-830F-911E19F02528}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM PMB Andromeda-V3.31" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>Comment</t>
   </si>
@@ -247,13 +247,19 @@
     <t>SOIC127P600X170_HS-9N</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
     <t>IS</t>
+  </si>
+  <si>
+    <t>In SOAR</t>
+  </si>
+  <si>
+    <t>Stock (DIGIKEY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS (x2) </t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -306,11 +312,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -322,6 +339,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,22 +668,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E76F58-302C-46CD-97EB-3E363AFD4026}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,10 +703,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -708,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -731,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -754,10 +775,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -777,10 +798,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -800,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -823,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -846,10 +867,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -869,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -892,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -915,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -938,10 +959,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -961,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -984,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1007,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1030,10 +1051,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1053,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1076,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1099,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1122,10 +1143,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1145,7 +1169,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
+++ b/PowerManagementBoard_V3.31/BOM PMB Andromeda-V3.31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Documents\GitHub\Andromeda-V3.3\PowerManagementBoard_V3.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noorg\OneDrive\Documents\GitHub\Andromeda-V3.3\PowerManagementBoard_V3.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25DA20-AB97-48F9-A6B4-3DFC0FCF1C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EED8B6-3D84-4F68-AC59-6447B4559D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF07532D-72B4-43B2-830F-911E19F02528}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{BF07532D-72B4-43B2-830F-911E19F02528}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM PMB Andromeda-V3.31" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +274,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -340,6 +352,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,19 +685,20 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,8 +724,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -732,8 +747,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -755,8 +770,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -778,8 +793,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -801,8 +816,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -823,9 +838,10 @@
       <c r="G6" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -847,8 +863,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -870,7 +886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -893,7 +909,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -916,8 +932,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -939,7 +955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -962,8 +978,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -985,8 +1001,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1008,8 +1024,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1031,8 +1047,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1054,8 +1070,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1077,8 +1093,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1100,8 +1116,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1123,8 +1139,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1149,8 +1165,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
